--- a/sample-management/uploaded-files/StudyTemplate.xlsx
+++ b/sample-management/uploaded-files/StudyTemplate.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96455bb4d7de5932/Documents/UNI/Semester 6/Probenmanagement_FoPra/sample-management/src/main/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_015600CC7E6CB4146C9C702C8C034E75E26BD18C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9836830A-63CA-4CDD-9C66-B2026A4A8AE6}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Study Name:</t>
   </si>
@@ -82,16 +76,133 @@
   </si>
   <si>
     <t>Sample Study 2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>701 µl</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>702 µl</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>703 µl</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>704 µl</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>705 µl</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>706 µl</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>707 µl</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>708 µl</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>709 µl</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>710 µl</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>711 µl</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>712 µl</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>713 µl</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>714 µl</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>715 µl</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>716 µl</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>717 µl</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>718 µl</t>
+  </si>
+  <si>
+    <t>rtrer</t>
+  </si>
+  <si>
+    <t>df43</t>
+  </si>
+  <si>
+    <t>see</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -257,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -451,27 +562,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -502,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -525,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -548,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -571,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -592,6 +703,420 @@
       </c>
       <c r="G6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44914</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44915</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44916</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44917</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44918</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44919</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44920</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44921</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44922</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>65656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44923</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44924</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44925</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>46564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44926</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>4534636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44928</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>252351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44929</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>4376575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44930</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>3523543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44931</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>2425346</v>
       </c>
     </row>
   </sheetData>
